--- a/output/Winterweizen_Spelzweizen_2023_Versuchsbericht.xlsx
+++ b/output/Winterweizen_Spelzweizen_2023_Versuchsbericht.xlsx
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2139,7 +2139,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5025,7 +5025,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5142,7 +5142,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5493,7 +5493,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5649,7 +5649,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5961,7 +5961,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -6039,7 +6039,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6195,7 +6195,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6234,7 +6234,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6468,7 +6468,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6507,7 +6507,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6819,7 +6819,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6858,7 +6858,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6936,7 +6936,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6975,7 +6975,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -7014,7 +7014,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7287,7 +7287,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7326,7 +7326,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7404,7 +7404,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -7482,7 +7482,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -7560,7 +7560,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7872,7 +7872,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7911,7 +7911,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -8067,7 +8067,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -8106,7 +8106,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8184,7 +8184,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -9471,7 +9471,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9588,7 +9588,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9666,7 +9666,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9783,7 +9783,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9822,7 +9822,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
@@ -10056,7 +10056,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F247" t="inlineStr">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
@@ -10212,7 +10212,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
@@ -10290,7 +10290,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
@@ -10368,7 +10368,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
@@ -10524,7 +10524,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>KH /Wallertheim</t>
+          <t>KH / Wallertheim</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
@@ -12864,7 +12864,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
@@ -13020,7 +13020,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -13098,7 +13098,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
@@ -13215,7 +13215,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
@@ -13254,7 +13254,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
@@ -13332,7 +13332,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
@@ -13410,7 +13410,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
@@ -13800,7 +13800,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
@@ -13839,7 +13839,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>MÜ /Biedesheim</t>
+          <t>MÜ / Biedesheim</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -14034,7 +14034,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -14112,7 +14112,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -14151,7 +14151,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -14190,7 +14190,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -14424,7 +14424,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F359" t="inlineStr">
@@ -14463,7 +14463,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -14580,7 +14580,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -14736,7 +14736,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F367" t="inlineStr">
@@ -14775,7 +14775,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F368" t="inlineStr">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F369" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F370" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F371" t="inlineStr">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F372" t="inlineStr">
@@ -14970,7 +14970,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>NW / Herx- heim</t>
+          <t>NW / Herx-heim</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
@@ -15126,7 +15126,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
@@ -15204,7 +15204,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
@@ -15243,7 +15243,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
@@ -15282,7 +15282,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -15399,7 +15399,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
@@ -15438,7 +15438,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
@@ -15555,7 +15555,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
@@ -15594,7 +15594,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
@@ -15750,7 +15750,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
@@ -15789,7 +15789,7 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
@@ -15828,7 +15828,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
@@ -15867,7 +15867,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -15906,7 +15906,7 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
@@ -15984,7 +15984,7 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
@@ -16023,7 +16023,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -16062,7 +16062,7 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
@@ -16140,7 +16140,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>SIM /Kümbdchen</t>
+          <t>SIM / Kümbdchen</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
